--- a/main/StructureDefinition-bc-role-relationships.xlsx
+++ b/main/StructureDefinition-bc-role-relationships.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="395">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-27T23:52:18+00:00</t>
+    <t>2025-02-28T00:26:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -266,7 +266,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}invariant-rltn-1:One organization or one location allowed; not both. {organization.count()=1 xor location.count()=1}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}invariant-rltn-1:One organization or one location allowed; not both. {organization.count()=1 xor location.count()=1}</t>
   </si>
   <si>
     <t>PRD (as one example)</t>
@@ -319,10 +319,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>PractitionerRole.implicitRules</t>
   </si>
   <si>
@@ -342,6 +349,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>PractitionerRole.language</t>
   </si>
   <si>
@@ -419,26 +429,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>PractitionerRole.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -468,10 +485,6 @@
     <t>The roleStatus extension has been flagged for further implementer feedback regarding whether it should be considered a modifier extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t>RoleStatus</t>
   </si>
   <si>
@@ -558,10 +571,6 @@
     <t>PractitionerRole.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -569,9 +578,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -585,10 +591,10 @@
 </t>
   </si>
   <si>
-    <t>Business Identifiers that are specific to a role/location</t>
-  </si>
-  <si>
-    <t>Business Identifiers that are specific to a role/location.</t>
+    <t>An identifier intended for computation</t>
+  </si>
+  <si>
+    <t>An identifier - identifies some entity uniquely and unambiguously. Typically this is used for business identifiers.</t>
   </si>
   <si>
     <t>This element is considered SHOULD support and it is recommended to have an identifier associated with PractitionerRole to assist in searches, not every implementation (especially legacy implementations that combined both concepts of practitioner &amp; practitionerRole) will include an identifier practioner role.</t>
@@ -653,7 +659,15 @@
     <t>The period during which the person is authorized to act as a practitioner in these role(s) for the organization.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Even after the agencies is revoked, the fact that it existed must still be recorded.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>PRD-8/9 / PRA-5.4</t>
@@ -678,6 +692,13 @@
     <t>Practitioner that is able to provide the defined services for the organization.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
     <t>.player</t>
   </si>
   <si>
@@ -713,19 +734,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>PractitionerRole.organization.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -930,9 +942,19 @@
     <t>Often practitioners have a dedicated line for each location (or service) that they work at, and need to be able to define separate contact details for each of these.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}</t>
+  </si>
+  <si>
+    <t>XTN</t>
+  </si>
+  <si>
     <t>.telecom</t>
   </si>
   <si>
+    <t>ContactPoint</t>
+  </si>
+  <si>
     <t>PractitionerRole.telecom.id</t>
   </si>
   <si>
@@ -948,6 +970,9 @@
     <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -960,8 +985,8 @@
     <t>ContactPoint.system</t>
   </si>
   <si>
-    <t xml:space="preserve">cpt-2
-</t>
+    <t>ele-1
+cpt-2</t>
   </si>
   <si>
     <t>XTN.3</t>
@@ -1195,6 +1220,9 @@
   </si>
   <si>
     <t>Service is not available (seasonally or for a public holiday) from this date.</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>PractitionerRole.availabilityExceptions</t>
@@ -1222,6 +1250,9 @@
     <t>Organizations have multiple systems that provide various services and ,ay also be different for practitioners too.  So the endpoint satisfies the need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
+  </si>
+  <si>
+    <t>The target of a resource reference is a RIM entry point (Act, Role, or Entity)</t>
   </si>
 </sst>
 </file>
@@ -2031,16 +2062,16 @@
         <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>76</v>
@@ -2051,10 +2082,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2077,16 +2108,16 @@
         <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2136,7 +2167,7 @@
         <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>77</v>
@@ -2145,16 +2176,16 @@
         <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>76</v>
@@ -2165,10 +2196,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2191,16 +2222,16 @@
         <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2226,13 +2257,13 @@
         <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>76</v>
@@ -2250,7 +2281,7 @@
         <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>77</v>
@@ -2259,16 +2290,16 @@
         <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>76</v>
@@ -2279,14 +2310,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2305,16 +2336,16 @@
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2364,7 +2395,7 @@
         <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>77</v>
@@ -2373,16 +2404,16 @@
         <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>76</v>
@@ -2393,14 +2424,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2419,16 +2450,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2478,7 +2509,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
@@ -2496,7 +2527,7 @@
         <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>76</v>
@@ -2507,14 +2538,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2533,15 +2564,17 @@
         <v>76</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>76</v>
@@ -2578,17 +2611,19 @@
         <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2597,16 +2632,16 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>76</v>
@@ -2617,16 +2652,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -2645,16 +2680,16 @@
         <v>76</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2704,7 +2739,7 @@
         <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>77</v>
@@ -2713,16 +2748,16 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>76</v>
@@ -2733,16 +2768,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -2761,15 +2796,17 @@
         <v>76</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>76</v>
@@ -2818,7 +2855,7 @@
         <v>76</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>77</v>
@@ -2827,16 +2864,16 @@
         <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2847,13 +2884,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>76</v>
@@ -2875,13 +2912,13 @@
         <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2932,7 +2969,7 @@
         <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>77</v>
@@ -2941,10 +2978,10 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>76</v>
@@ -2961,13 +2998,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>76</v>
@@ -2989,13 +3026,13 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3046,7 +3083,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3055,10 +3092,10 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>76</v>
@@ -3075,13 +3112,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>76</v>
@@ -3103,13 +3140,13 @@
         <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3160,7 +3197,7 @@
         <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
@@ -3169,10 +3206,10 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>76</v>
@@ -3189,13 +3226,13 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>76</v>
@@ -3217,13 +3254,13 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -3274,7 +3311,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3283,10 +3320,10 @@
         <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>76</v>
@@ -3303,14 +3340,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3329,19 +3366,19 @@
         <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>76</v>
@@ -3378,19 +3415,19 @@
         <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>77</v>
@@ -3399,16 +3436,16 @@
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>76</v>
@@ -3419,10 +3456,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3445,19 +3482,19 @@
         <v>88</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>76</v>
@@ -3506,7 +3543,7 @@
         <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>77</v>
@@ -3515,30 +3552,30 @@
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3561,70 +3598,70 @@
         <v>88</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q18" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="P18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q18" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>77</v>
@@ -3633,30 +3670,30 @@
         <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3679,17 +3716,19 @@
         <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>76</v>
@@ -3738,7 +3777,7 @@
         <v>76</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>77</v>
@@ -3747,30 +3786,30 @@
         <v>87</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3793,15 +3832,17 @@
         <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>76</v>
@@ -3850,7 +3891,7 @@
         <v>76</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -3859,16 +3900,16 @@
         <v>87</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>76</v>
@@ -3879,10 +3920,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3905,15 +3946,17 @@
         <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>76</v>
@@ -3962,7 +4005,7 @@
         <v>76</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>77</v>
@@ -3971,16 +4014,16 @@
         <v>87</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>76</v>
@@ -3991,10 +4034,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4017,13 +4060,13 @@
         <v>76</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4074,7 +4117,7 @@
         <v>76</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>77</v>
@@ -4092,7 +4135,7 @@
         <v>76</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>76</v>
@@ -4103,14 +4146,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4129,16 +4172,16 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4176,19 +4219,19 @@
         <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>77</v>
@@ -4200,13 +4243,13 @@
         <v>76</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>76</v>
@@ -4217,10 +4260,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4243,16 +4286,16 @@
         <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4302,7 +4345,7 @@
         <v>76</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>77</v>
@@ -4311,16 +4354,16 @@
         <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>76</v>
@@ -4331,10 +4374,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4357,16 +4400,16 @@
         <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4392,13 +4435,13 @@
         <v>76</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>76</v>
@@ -4416,7 +4459,7 @@
         <v>76</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>77</v>
@@ -4428,13 +4471,13 @@
         <v>76</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>76</v>
@@ -4445,10 +4488,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4471,16 +4514,16 @@
         <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4530,7 +4573,7 @@
         <v>76</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4542,13 +4585,13 @@
         <v>76</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>76</v>
@@ -4559,10 +4602,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4585,16 +4628,16 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4644,7 +4687,7 @@
         <v>76</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
@@ -4656,13 +4699,13 @@
         <v>76</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>76</v>
@@ -4673,10 +4716,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4699,19 +4742,19 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>76</v>
@@ -4736,13 +4779,13 @@
         <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>76</v>
@@ -4760,7 +4803,7 @@
         <v>76</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>77</v>
@@ -4769,19 +4812,19 @@
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>76</v>
@@ -4789,10 +4832,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4815,16 +4858,16 @@
         <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -4850,13 +4893,13 @@
         <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>76</v>
@@ -4874,7 +4917,7 @@
         <v>76</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -4883,19 +4926,19 @@
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>76</v>
@@ -4903,10 +4946,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4929,15 +4972,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>76</v>
@@ -4986,7 +5031,7 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -4995,30 +5040,30 @@
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5041,15 +5086,17 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -5098,7 +5145,7 @@
         <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5107,16 +5154,16 @@
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>76</v>
@@ -5127,10 +5174,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5153,17 +5200,17 @@
         <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -5212,7 +5259,7 @@
         <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>77</v>
@@ -5221,19 +5268,19 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>76</v>
@@ -5241,10 +5288,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5267,13 +5314,13 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5324,7 +5371,7 @@
         <v>76</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5342,7 +5389,7 @@
         <v>76</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>76</v>
@@ -5353,14 +5400,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5379,16 +5426,16 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5426,19 +5473,19 @@
         <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>226</v>
+        <v>140</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -5447,16 +5494,16 @@
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>76</v>
@@ -5467,10 +5514,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5493,15 +5540,17 @@
         <v>88</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>76</v>
@@ -5526,13 +5575,13 @@
         <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>76</v>
@@ -5550,7 +5599,7 @@
         <v>76</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5559,19 +5608,19 @@
         <v>87</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>76</v>
@@ -5579,10 +5628,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5605,19 +5654,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>76</v>
@@ -5666,7 +5715,7 @@
         <v>76</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -5675,19 +5724,19 @@
         <v>87</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>76</v>
@@ -5695,10 +5744,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5721,19 +5770,19 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>76</v>
@@ -5758,13 +5807,13 @@
         <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>76</v>
@@ -5782,7 +5831,7 @@
         <v>76</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -5791,19 +5840,19 @@
         <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>76</v>
@@ -5811,10 +5860,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5837,16 +5886,16 @@
         <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -5896,7 +5945,7 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -5905,16 +5954,16 @@
         <v>87</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>76</v>
@@ -5925,10 +5974,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5951,15 +6000,17 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -6008,7 +6059,7 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -6017,19 +6068,19 @@
         <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>76</v>
@@ -6037,10 +6088,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6063,16 +6114,16 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6122,7 +6173,7 @@
         <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6131,16 +6182,16 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>76</v>
@@ -6151,10 +6202,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6177,13 +6228,13 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6234,7 +6285,7 @@
         <v>76</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6252,7 +6303,7 @@
         <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>76</v>
@@ -6263,14 +6314,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6289,16 +6340,16 @@
         <v>76</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6336,19 +6387,19 @@
         <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6357,16 +6408,16 @@
         <v>78</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>76</v>
@@ -6377,14 +6428,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6403,19 +6454,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>76</v>
@@ -6464,7 +6515,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
@@ -6473,16 +6524,16 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>76</v>
@@ -6493,10 +6544,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6519,15 +6570,17 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>76</v>
@@ -6552,13 +6605,13 @@
         <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>76</v>
@@ -6576,7 +6629,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6585,16 +6638,16 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>76</v>
@@ -6605,10 +6658,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6631,13 +6684,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6688,7 +6741,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -6697,16 +6750,16 @@
         <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>76</v>
@@ -6717,10 +6770,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6743,16 +6796,16 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -6802,7 +6855,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -6811,16 +6864,16 @@
         <v>87</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>76</v>
@@ -6831,10 +6884,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6857,16 +6910,16 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -6916,7 +6969,7 @@
         <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -6925,16 +6978,16 @@
         <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>76</v>
@@ -6945,10 +6998,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6971,13 +7024,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7028,7 +7081,7 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7037,16 +7090,16 @@
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>76</v>
@@ -7057,10 +7110,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7083,13 +7136,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7140,7 +7193,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7158,7 +7211,7 @@
         <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>76</v>
@@ -7169,14 +7222,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -7195,16 +7248,16 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>224</v>
+        <v>136</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7242,19 +7295,19 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>140</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7263,16 +7316,16 @@
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>222</v>
+        <v>101</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>76</v>
@@ -7283,14 +7336,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7309,19 +7362,19 @@
         <v>88</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -7370,7 +7423,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -7379,16 +7432,16 @@
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>76</v>
@@ -7399,10 +7452,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7425,15 +7478,17 @@
         <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7482,7 +7537,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>87</v>
@@ -7491,16 +7546,16 @@
         <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>76</v>
@@ -7511,10 +7566,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7537,15 +7592,17 @@
         <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>205</v>
+      </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7594,7 +7651,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7603,16 +7660,16 @@
         <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>207</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>385</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>76</v>
@@ -7623,10 +7680,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7649,15 +7706,17 @@
         <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7706,7 +7765,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7715,16 +7774,16 @@
         <v>87</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>76</v>
@@ -7735,10 +7794,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7761,17 +7820,19 @@
         <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O55" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7820,7 +7881,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7829,16 +7890,16 @@
         <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>216</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>222</v>
+        <v>394</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>76</v>

--- a/main/StructureDefinition-bc-role-relationships.xlsx
+++ b/main/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-28T00:26:03+00:00</t>
+    <t>2025-03-05T22:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-role-relationships.xlsx
+++ b/main/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-05T22:25:43+00:00</t>
+    <t>2025-03-06T00:10:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/StructureDefinition-bc-role-relationships.xlsx
+++ b/main/StructureDefinition-bc-role-relationships.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-06T00:10:12+00:00</t>
+    <t>2025-05-30T21:39:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1579,17 +1579,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.96875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="19.515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.73046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="98.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="84.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1598,26 +1598,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="214.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="46.96875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="184.27734375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="55.41796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="85.47265625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="78.58203125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="194.47265625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="73.27734375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="67.37109375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="166.7265625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
